--- a/temp/actividades.xlsx
+++ b/temp/actividades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="193">
   <si>
     <t>Cliente</t>
   </si>
@@ -107,6 +107,503 @@
   </si>
   <si>
     <t>Norangel Guedez</t>
+  </si>
+  <si>
+    <t>CORPORACION INDUSTRIAL PANA-VEN, C.A</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>30/9/2025, 9:30:00</t>
+  </si>
+  <si>
+    <t>Mairim Reyes</t>
+  </si>
+  <si>
+    <t>EL SUINO, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No están trabajando contado actualmente proveedor con 30 días de crédito , esperando la autorización de envió de documento la sra Alessadra administración para que se pueda evaluar el crédito por parte de sumichem , Actualmente hay un proveedor que le da precio BCV  muy buenos , ni me dio su nombre . </t>
+  </si>
+  <si>
+    <t>30/9/2025, 11:25:00</t>
+  </si>
+  <si>
+    <t>QUIMICOS DERIVADOS DEL COCO, C.A. (QUIDECO, C.A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se actualizo cotizacion enviada el viernes , esta consiguiendo primero insumo ANHIDRIDO MALEICO, para luego 500k metabisulfito a pecio bs BCV a 2.16$  contado momentáneamente, sera evaluado y me avisaran duracion 12 hrs   </t>
+  </si>
+  <si>
+    <t>30/9/2025, 10:43:00</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS DE PAPEL ARAGUA, C.A.</t>
+  </si>
+  <si>
+    <t>cotización de 7.000k sulfónico a pago en $ 2.64$/k de sumichem esta recibiendo cotizaciones de 8 solicitudes la que ha recibido  cotización un proveedor tiene precio de 2.60$ y otro por debajo</t>
+  </si>
+  <si>
+    <t>30/9/2025, 10:10:00</t>
+  </si>
+  <si>
+    <t>Jamones Curados Jacusa S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrevista con La gerente general de Manofactura. la marca que fabrican es Alpino y Cordillera , le maquilan a Montserratina. para poder comenzar con alianzas comerciales primero debemos entregar muestras para ser evaluadas por el departamento de calidad, muestra solicitadas  con 250gr Eritorbato, glutamato, tripolifosfato, muestra con 500gr para evaluación en planta  Carragenato de Inyeccion MZ500 y Proteína aislado de soya. Cuando se lleve la muestra deben ir acompañado cada uno con la ficha técnica y el COA se tendrá la Reunión con la encargada de compra para el resto de la información de como trabajan con los proveedores.  Compartió consumo aproximados de consumos carragenato de Inyección 1.050k segun su concentración, eritorbato 120k, glutamato 120k, lactato+diacetato 2.400lts, proteina aislado de soya 2.800k, tripolifosfato 1000k </t>
+  </si>
+  <si>
+    <t>29/9/2025, 11:45:00</t>
+  </si>
+  <si>
+    <t>INVERSIONES BELMONTE 2020, C.A</t>
+  </si>
+  <si>
+    <t>900 Kg de Carragenato de Emulsion y 600 Kg de Tripolifosfato, por error en el precio colocado al tripoli</t>
+  </si>
+  <si>
+    <t>30/9/2025, 13:57:14</t>
+  </si>
+  <si>
+    <t>tarea</t>
+  </si>
+  <si>
+    <t>Yraiza Belisario</t>
+  </si>
+  <si>
+    <t>LA MONTSERRATINA, C.A</t>
+  </si>
+  <si>
+    <t>29/9/2025, 10:30:00</t>
+  </si>
+  <si>
+    <t>INVERSIONES &amp; DISTRIBUIDORA QUIMICOS R&amp;A, C.A.</t>
+  </si>
+  <si>
+    <t>29/9/2025, 9:00:00</t>
+  </si>
+  <si>
+    <t>MAYICLEAN 1317, C.A</t>
+  </si>
+  <si>
+    <t>Visita semanal y retiro de pago pendiente</t>
+  </si>
+  <si>
+    <t>29/9/2025, 15:59:00</t>
+  </si>
+  <si>
+    <t>EL REY DE LA LIMPIEZA, C.A</t>
+  </si>
+  <si>
+    <t>Me comunique con el cliente para saber el estatus del pago pendiente ya que posee varios días de vencido</t>
+  </si>
+  <si>
+    <t>SUMINISTROS OILFARMA, C.A</t>
+  </si>
+  <si>
+    <t>Visita semanal para cordinación de pagos y ver qué necesita para posible pedido de la semana</t>
+  </si>
+  <si>
+    <t>29/9/2025, 1:00:00</t>
+  </si>
+  <si>
+    <t>26/9/2025, 10:30:00</t>
+  </si>
+  <si>
+    <t>GRUPO DON TITO</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE COTIZACION POR FOSFATO DICALCICO CANT A REQUERIR 5TON, SE LE DIO RESPUESTA QUE EL MATERIAL ESTA PRONTO A ARRIBAR, FECHA TENTATIVA DE LLEGADA PARA MEDIADOS DEL MES DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>25/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t>llamada</t>
+  </si>
+  <si>
+    <t>AJEVEN, C.A.</t>
+  </si>
+  <si>
+    <t>NEGOCIACION POR RESINA PET EN AGUA  CZ 328 A Y SEGUIMIENTO A COTIZACIONES POR RESINA PET, EDTA DISODICO</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA HERMANOS DUARTE, C.A</t>
+  </si>
+  <si>
+    <t>Consulta por texto sobre existencia de Tripolifosfato Industrial y Butil Glicol, se le indicó en su momento que no se tenia existencia de ese tipo de trípoli y Butil no lo vendemos. Hoy se contactó para completar su ficha como cliente y reiterar verbalmente que no se tiene el material que requería en dias pasados</t>
+  </si>
+  <si>
+    <t>Me comunique con el cliente para informarle que poseia un saldo vencido el cual me respondió que me estaría avisando para irlo a retirar</t>
+  </si>
+  <si>
+    <t>25/9/2025, 8:00:00</t>
+  </si>
+  <si>
+    <t>INVERSIONES DA &amp; DY 2015, C.A</t>
+  </si>
+  <si>
+    <t>Me comunique con el cliente para informarle que aún poseia un saldo pendiente por cancelar. Me indico que luego del medio día gestionará el pago correspondiente</t>
+  </si>
+  <si>
+    <t>25/9/2025, 9:00:00</t>
+  </si>
+  <si>
+    <t>Me comunique con el cliente ya que posee más de 19 días de mora y me informo que realizará el día de mañana un pago por zelle y el otro en efectivo la próxima semana</t>
+  </si>
+  <si>
+    <t>25/9/2025, 11:15:00</t>
+  </si>
+  <si>
+    <t>GB CHEMPRO, C.A</t>
+  </si>
+  <si>
+    <t>Correo enviado a GB CHEMPRO, C.A</t>
+  </si>
+  <si>
+    <t>24/9/2025, 14:04:20</t>
+  </si>
+  <si>
+    <t>LABORATORIOS TOPP</t>
+  </si>
+  <si>
+    <t>Correo enviado a LABORATORIOS TOPP</t>
+  </si>
+  <si>
+    <t>24/9/2025, 12:01:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARNICOS K&amp;M </t>
+  </si>
+  <si>
+    <t>conoce a la administradora Jennifer Gómez en compañía de Jorge otero jefe de producción. se le ofreció las mejor opción de negoción para cotización , la opción que maneja actualmente es con nota de entrega la gran mayoría y pocas con factura forma de pago en bolívares a la tasa BCV de con crédito de 15 días para comenzar. se le indico la documentación necesaria para ser registrado como cliente y evaluación del crédito se envio correo con la planilla de crédito sumichem. Indico consumo hasta la fecha carragenato de emulsión 250k, eritorbato 50k, glutamato 75k, lactato+diacetato 150lts, proteina aislado de soya 1.500k, tripolifosfato 250k alguno de sus proveedores alimentos internacionales, Rimafer, Vicente cabo</t>
+  </si>
+  <si>
+    <t>23/9/2025, 11:30:00</t>
+  </si>
+  <si>
+    <t>FABRICA INSUQUIM, C.A.</t>
+  </si>
+  <si>
+    <t>Se buscará pago pendiente</t>
+  </si>
+  <si>
+    <t>26/9/2025, 10:09:00</t>
+  </si>
+  <si>
+    <t>Visitaré al cliente para concretar nuevos pedidos y hablar sobre el pago pendiente</t>
+  </si>
+  <si>
+    <t>23/9/2025, 1:00:00</t>
+  </si>
+  <si>
+    <t>Se retirará cobranza pendiente y se tomará nuevos pedidos</t>
+  </si>
+  <si>
+    <t>23/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t>SUMINISTROS S.S.A. 2018, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se retirará cobranza pendiente y se hablara de nuevos pedidos para esta semana </t>
+  </si>
+  <si>
+    <t>23/9/2025, 11:00:00</t>
+  </si>
+  <si>
+    <t>23/9/2025, 23:00:00</t>
+  </si>
+  <si>
+    <t>ALIMENTOS CARNICOS DON PEDRO, C.A</t>
+  </si>
+  <si>
+    <t>22/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t>ENLACEN, C.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negociación de varios insumos para la próxima semana, pendiente documentos para crédito </t>
+  </si>
+  <si>
+    <t>20/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t>EL WALMART DEL QUIMICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negociación de 5 tamb de ácido acetico </t>
+  </si>
+  <si>
+    <t>Se buscará cobranza pendiente y se hablara de nueva negociación para la próxima semana</t>
+  </si>
+  <si>
+    <t>19/9/2025, 11:10:00</t>
+  </si>
+  <si>
+    <t>Atendñshzh</t>
+  </si>
+  <si>
+    <t>18/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t>RAQUEL MARGIT HERNANDEZ FUNEZ (COMERCIALIZADORA MAS LIMPIO RAQUEL HERNANDEZ, F.P)</t>
+  </si>
+  <si>
+    <t>18/9/2025, 9:15:00</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS MIDMEN, C.A</t>
+  </si>
+  <si>
+    <t>18/9/2025, 11:00:00</t>
+  </si>
+  <si>
+    <t>INVERSIONES MIDA, C.A.</t>
+  </si>
+  <si>
+    <t>17/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t>16/9/2025, 14:49:58</t>
+  </si>
+  <si>
+    <t>ALIMENTOS FERGO´S, C.A</t>
+  </si>
+  <si>
+    <t>Alimentos Fergos</t>
+  </si>
+  <si>
+    <t>16/9/2025, 14:40:50</t>
+  </si>
+  <si>
+    <t>PRODUCTOS LEYTON, C.A</t>
+  </si>
+  <si>
+    <t>Correo enviado a PRODUCTOS LEYTON, C.A</t>
+  </si>
+  <si>
+    <t>15/9/2025, 15:04:57</t>
+  </si>
+  <si>
+    <t>INVERSIONES DGL,C.A.</t>
+  </si>
+  <si>
+    <t>cliente mantiene negociación por 2ton de sulfato de sodio pagando en bs a tasa de bcv</t>
+  </si>
+  <si>
+    <t>15/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t>EMVECA, C.A</t>
+  </si>
+  <si>
+    <t>Correo enviado a EMVECA, C.A</t>
+  </si>
+  <si>
+    <t>15/9/2025, 9:50:21</t>
+  </si>
+  <si>
+    <t>CORPORACION GRUPO Z, C.A</t>
+  </si>
+  <si>
+    <t>Hacer llegar oferta por 4 tambores de Nonil Fenol 10 Moles</t>
+  </si>
+  <si>
+    <t>INVERSIONES CFC 369,C.A</t>
+  </si>
+  <si>
+    <t>El día de ayer se visitó este cliente haciendo seguimiento al desarrollo que se ha venido realizando con este en torno a ser aprobados como sus proveedores asi como conocer su impresión en cuanto a la cotización enviada vía WhatsApp porque no se tenia los documentos sobre 100 Kg de Proteina Aislada de Soya la cual estaban necesitando con urgencia ya que se había agotado y habían comprado pero se había retrasado el despacho. Puntualizando y conociendo un poco la realidad del cliente manifestó que tiene una alianza desde sus inicios con Rimafer, Alimentos Internacionales y en el pasado con Vicente Cabot, están abiertos a desarrollar otros proveedores para evaluar alternativas y no crear dependencias. Se consultó estatus sobre las muestras entregadas el pasado mes de Julio, quedamos en que van a revisar las Fichas Técnicas y comparar las de Sumichem con los proveedores que actualmente la asisten. Por ser fabricantes de Chorizos se muestran bastante críticos en cuanto al uso de la Proteína de Soya ya que la misma influyen en obtener producto terminado que mantenga su forma, no altere sus características sensoriales y mantenga el % porcentaje de la merma de cocimiento que manejan para este producto. Sus compras las hacen a BCV, manejan alternativamente Nota de Entrega y Factura. Solicitan que iniciemos con crédito de 7 días . Atenta a sus comentarios para seguir avanzando en consolidación de crearlos como clientes y concretar con una venta</t>
+  </si>
+  <si>
+    <t>12/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta semana y la anterior se ha hecho contacto en reiteradas oportunidades con el Prospecto de Cliente a fin de ir puntualizando en concretar finalmente su creación como cliente, el comprador envío los documentos básicos para su creación . El Jueves 03/09 se hizo llegar la cotización por los materiales  que usan en su proceso al efectuarse actualizacion de lista de precios se hizo enviar la cotizacion nro 516. Me encuentro a la espera... </t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>SERVICIOS INTEGRALES GLOBAL EXPRESS, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el día de hoy, se hizo un contacto nuevamente por el cliente por Vía Mensaje de WhatsApp en vista que no se pudo ir a visitarlo según lo previsto para la Agenda de hoy a fin de retomar el tema de lo acontecido el pasado Viernes 29/08 al rechazar el saco de Goma Xanthan del fabricante Fu Feng a continuación parte del texto: Buenos días Mariela, gusto saludarte hoy tenía previsto ir para allá... pero cambio de planes.
+La situación acontecida con Uds, de verdad se pudo haber prestado a una mala interpretación donde influyeron varios factores y no estaba al control de todo ello.
+La muestra entregada de Goma Xanthan fue de Food Chem, de ese material se había venido trabajando.
+Quedaba poca existencia pero venció en esos días.
+La muchacha de Despacho para evitar que devolvieran el saco, tomó del saco del lote nuevo que estaba llegando (ella además de desconocer lo que acontecía lo hizo para evitar un rechazo por un saco, eso me lo comentó este Martes que fui para allá)
+Yo conocía de su mala experiencia... pero no la marca que ocasionó en su proceso la situación. Al entregar las muestras entregué toda la documentación a Carmen de Control de Calidad.
+Lleve el saco porque por ser uno solo para la zona iba a encarecer el costo flete.
+Resultando que la Goma Xanthan llevada es la misma que ustedes tienen habían tenido su mala experiencia. Aquí es mi deber y será parte de mi experiencia poder abarcar en la medida de mis posibilidades un poco más de la informacion, espero que lo acontecido no me descarte como su proveedor.
+Es mi deber decirles que si bien a Uds. no le funciona este fabricante hemos estado vendiendo a otros clientes y hasta ahora sin problemas.
+Así mismo te comparto está carta que se nos hizo llegar más o menos esos días o creo el mismo día del rechazo del saco para su informacion. Si bien ya manejan su posición es importante estar atentos con ello.
+***
+Dentro de otras cosas que en ese momento se plantearon me llamó la atención cuando Control de Calidad dejó también en entre dudas el funcionamiento del Ácido Acético que le vendimos argumentando que no llegaba a la Concentración y...de ese producto de verdad tanto mi compañera como mi persona lo hemos vendido y está trabajando bien en otros fabricantes por lo que me llamó eso la atención.
+Le sugerí revisar los reactivos e indicador porque de ser así estuviese repitiendo ese comportamiento en los otros. Sumado a todo lo escrito tambien se le compartió el documento enviado por Argenis en cuanto al proveedor Fu Feng. El resultado de este escrito el cliente expresó que el uso de esta Goma Xanthan trajo muchas perdidas a su proceso por lo que esta rechazada para ser usada nuevamente en sus proceso, sin embargo a pesar de lo acontecido y ocurrido esto no afectará nuestra relacion de compra -venta a futuro. Con ello doy por concluido este capitulo ocurrido con el cliente y estare atenta para seguir atendiendo y prestar el servicio de venta que se busca tener con el mismo.  </t>
+  </si>
+  <si>
+    <t>ALELIMON 22,C.A</t>
+  </si>
+  <si>
+    <t>Promoviendo la venta de Lavaplatos en crema en el cliente para su venta al detal en el establecimiento considerando que el cliente expende al publico productos de limpieza y afines, se hizo llegar la cotización Nro. 516 por 100 Kg de producto , se hizo llegar foto del material en el almacén.   Me encuentro a la espera de la evaluacion por parte del cliente en la posibilidad de realizar la compra ya que se mostro interesado en el mismo al dejar la muestra de este material el dia de ayer 11/09 en su negocio</t>
+  </si>
+  <si>
+    <t>Contacto vía WhatsApp por mensaje y por audio con el cliente para conocer su estatus de pago en torno a las Nota de Entrega 4906 que esta pendiente por cancelar 3722,50$. Se pasó el estatus de vencimiento para su control y verificación esta atento al pago, se le pidió de ser posible cancelar este fin de semana o el Lunes 15/09. Este solicito que se le diera inventario para Carragenato y Aislado de Soya. Atenta sobre su gestión de pago al cierre de la 1era quincena de Septiembre</t>
+  </si>
+  <si>
+    <t>Entrega de muestra de lavaplatos en crema al personal de ventas para que fuera evaluada, se hizo posteriormente hacer llegar Oferta del material asi como su imagen del almacen para ser evaluada por el cliente</t>
+  </si>
+  <si>
+    <t>11/9/2025, 9:45:00</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA J.S, C.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregar la factura Nro. al Contador y solicitud de Comprobante de Retención  </t>
+  </si>
+  <si>
+    <t>11/9/2025, 10:10:00</t>
+  </si>
+  <si>
+    <t>INVERSIONES CLEAN UP VENEZUELA, C.A</t>
+  </si>
+  <si>
+    <t>Correo enviado a INVERSIONES CLEAN UP VENEZUELA, C.A</t>
+  </si>
+  <si>
+    <t>11/9/2025, 20:15:43</t>
+  </si>
+  <si>
+    <t>Heidy Daza</t>
+  </si>
+  <si>
+    <t>9/9/2025, 11:00:00</t>
+  </si>
+  <si>
+    <t>TOMATERRA VEN, C.A</t>
+  </si>
+  <si>
+    <t>seguimiento a cotización por las 80 ton de resina pet</t>
+  </si>
+  <si>
+    <t>9/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t>INDUSTRIALES PARIA, C.A.</t>
+  </si>
+  <si>
+    <t>seguimiento para reposición de genapol</t>
+  </si>
+  <si>
+    <t>EMBUTIDOS ARICHUNA</t>
+  </si>
+  <si>
+    <t>Correo enviado a EMBUTIDOS ARICHUNA</t>
+  </si>
+  <si>
+    <t>9/9/2025, 12:31:05</t>
+  </si>
+  <si>
+    <t>C.A. QUIMICAS QUIMSA.</t>
+  </si>
+  <si>
+    <t>Recepcion de NF30Moles en Gel</t>
+  </si>
+  <si>
+    <t>11/9/2025, 9:00:00</t>
+  </si>
+  <si>
+    <t>LA PARISIENNE VEN, C.A</t>
+  </si>
+  <si>
+    <t>se hizo seguimiento de la cotizacion enviada, en espera de Caracas</t>
+  </si>
+  <si>
+    <t>8/9/2025, 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se converso de la muestras de las materias primas por enviar </t>
+  </si>
+  <si>
+    <t>cliente solicitando 225 kg de lisina y 250 kg de cloruro de colina, se converso de tener algún otro requerimientos, por los momentos no hay activos por las materias primas disponibles por nosotros</t>
+  </si>
+  <si>
+    <t>SEVENCOLORS, C.A</t>
+  </si>
+  <si>
+    <t>seguimiento de requerimiento por 500 kg de dioxido de titanio</t>
+  </si>
+  <si>
+    <t>CONSORCIO OLEAGINOSO PORTUGUESA, S.A. (COPOSA)</t>
+  </si>
+  <si>
+    <t>Correo enviado a CONSORCIO OLEAGINOSO PORTUGUESA, S.A. (COPOSA)</t>
+  </si>
+  <si>
+    <t>8/9/2025, 15:03:59</t>
+  </si>
+  <si>
+    <t>8/9/2025, 15:00:46</t>
+  </si>
+  <si>
+    <t>NONI PAN, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se converso con Dariana, precios y descuentos especiales, cliente decide cancelar en bs </t>
+  </si>
+  <si>
+    <t>OLEAGINOSAS INDUSTRIALES OLEICA, C.A. (OLEICA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se estará conversando sobre las nuevos desarrollos y afianzar la alianza comercial </t>
+  </si>
+  <si>
+    <t>10/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENTACION DE LA EMPRESA, </t>
+  </si>
+  <si>
+    <t>5/9/2025, 9:30:00</t>
+  </si>
+  <si>
+    <t>DISAIN, C.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforzar la alianza comercial hace poco creada, dar a conocer más de cerca nuestros servicios, presentar nuestro portafolio de materias primas, recopilar información estratégica de los consumos y proyecciones de compra de los prospectos y levantar sus requerimientos específicos. Apertura de relaciones con nuevos clientes de alto potencial, generación de oportunidades comerciales a mediano y largo plazo, analizar la tendencia del mercado.
+</t>
+  </si>
+  <si>
+    <t>1/9/2025, 3:30:00</t>
+  </si>
+  <si>
+    <t>VEMESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentar y dar a conocer a Sumichem como importador directo de materias primas, nuestros servicios, presentar nuestro portafolio de materias primas, recopilar información estratégica de los consumos y proyecciones de compra de los prospectos y levantar sus requerimientos específicos. Apertura de relaciones con nuevos clientes de alto potencial, generación de oportunidades comerciales a mediano y largo plazo, analizar la tendencia del mercado.
+</t>
+  </si>
+  <si>
+    <t>1/9/2025, 2:00:00</t>
+  </si>
+  <si>
+    <t>DIPAVEN</t>
+  </si>
+  <si>
+    <t>FRITZ, C.A</t>
+  </si>
+  <si>
+    <t>1/9/2025, 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propuesta comercial </t>
+  </si>
+  <si>
+    <t>26/8/2025, 9:00:00</t>
   </si>
 </sst>
 </file>
@@ -488,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H74"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
@@ -681,6 +1178,1748 @@
         <v>45931.63380773149</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45930.87608125</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45930.88117746528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45930.873821643516</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45930.873821643516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45930.86764748843</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45930.87476550926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45930.86286486111</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45930.86286486111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45930.857595636575</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45930.857595636575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45930.74808769676</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45930.74944442129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45929.85569873842</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45930.83776010417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45929.854250335644</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45930.831002997686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45929.66413990741</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45931.67441987268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45929.6626917824</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45931.67464831019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45929.6607338426</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45931.68139763889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45926.54514398148</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45926.54514398148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45925.83157333333</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45925.831580868056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45925.83036917824</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45925.83037561343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45925.766949212964</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45925.76697394676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45925.64286024305</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45931.67481694445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45925.63796166667</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45931.67488789352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45925.636642233796</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45925.636642233796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45924.75302655093</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45924.75302655093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45924.667472905094</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45924.667472905094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45924.587756458335</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45924.587756458335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45923.590700162036</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45929.66149290509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45923.51672575231</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45931.68161151621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45923.51227390046</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45925.63483038194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45923.51151730324</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45931.68177271991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45922.86619862268</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45924.589051793984</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45922.86247487269</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45924.56771229167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45920.64153237268</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45920.64154913195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45920.6408578588</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45920.64087538194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45918.632705069445</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45925.635206238425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45918.627262395836</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45918.62728082176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45917.85808805555</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45922.575539722224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45917.854047245375</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45922.57853421297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45917.852058703706</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45922.58449809028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45916.78473842592</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45916.78473842592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45916.778360833334</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45916.780629560184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45915.79510208333</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45915.79510208333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45915.62285833333</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45915.62286228009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45915.57664100695</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45915.57664100695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45913.011189745375</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45913.01123065972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45912.99836939815</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45912.998410115746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45912.98141847222</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45912.9814546875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45912.96400623843</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45912.96404063657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45912.95505412037</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45912.95508694444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45912.95016302083</v>
+      </c>
+      <c r="H52" s="2">
+        <v>45912.95020392361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45912.75752195602</v>
+      </c>
+      <c r="H53" s="2">
+        <v>45913.040351331016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45912.72324056713</v>
+      </c>
+      <c r="H54" s="2">
+        <v>45913.05991106482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45912.01093898148</v>
+      </c>
+      <c r="H55" s="2">
+        <v>45912.01093898148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45909.79107255787</v>
+      </c>
+      <c r="H56" s="2">
+        <v>45909.79107255787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45909.763483414354</v>
+      </c>
+      <c r="H57" s="2">
+        <v>45909.763487696764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45909.75886935185</v>
+      </c>
+      <c r="H58" s="2">
+        <v>45909.75887597223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45909.68825788195</v>
+      </c>
+      <c r="H59" s="2">
+        <v>45909.68825788195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45909.56787585648</v>
+      </c>
+      <c r="H60" s="2">
+        <v>45913.059950625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45908.839727893515</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45908.83973230324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45908.839224641204</v>
+      </c>
+      <c r="H62" s="2">
+        <v>45908.83922908564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="2">
+        <v>45908.83849825231</v>
+      </c>
+      <c r="H63" s="2">
+        <v>45908.838506886575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="2">
+        <v>45908.836752118055</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45908.83675987268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45908.79443810185</v>
+      </c>
+      <c r="H65" s="2">
+        <v>45908.79443810185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45908.792213402776</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45908.792213402776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45908.769562754635</v>
+      </c>
+      <c r="H67" s="2">
+        <v>45908.76956804398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45905.957887592594</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45913.03856237268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="2">
+        <v>45905.549966516206</v>
+      </c>
+      <c r="H69" s="2">
+        <v>45905.550048391204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45900.8615709838</v>
+      </c>
+      <c r="H70" s="2">
+        <v>45905.54618793981</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45900.86048863426</v>
+      </c>
+      <c r="H71" s="2">
+        <v>45905.54665938657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45900.860102164355</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45905.54676033565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45900.84488790509</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45905.54686912037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45891.61512210648</v>
+      </c>
+      <c r="H74" s="2">
+        <v>45891.61512210648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
